--- a/data/trans_dic/P12B1_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12B1_3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que requiere cuidados especiales &gt;=60 años</t>
+          <t>Población que requiere cuidados especiales &gt;=60 años (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,19 +667,19 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>3,83%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>58,44%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
@@ -662,17 +687,32 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>51,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>33,24%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3,37%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 9,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>0,0; 21,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 14,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,11</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 12,08</t>
         </is>
       </c>
     </row>
@@ -742,17 +797,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -762,27 +817,42 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>51,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>39,53%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,9</t>
+          <t>0,0; 13,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,54</t>
+          <t>0,0; 12,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,02</t>
+          <t>0,0; 11,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 73,06</t>
+          <t>0,0; 7,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,25; 83,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,91</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 7,91</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,49</t>
         </is>
       </c>
     </row>
@@ -862,37 +947,52 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>27,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 12,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,66; 56,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,98</t>
+          <t>0,81; 7,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,56</t>
+          <t>0,0; 5,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,05</t>
+          <t>0,5; 4,8</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,03</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,59</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>47,57%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>44,45%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>47,34%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>53,2%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>64,62%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>60,09%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>50,98%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>54,38%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>54,74%</t>
+          <t>2,21%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2,79%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4,02%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2,27%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,35; 87,07</t>
+          <t>0,0; 5,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,38; 76,13</t>
+          <t>0,0; 8,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,46; 79,01</t>
+          <t>1,16; 10,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,17; 77,58</t>
+          <t>0,0; 5,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,22; 89,48</t>
+          <t>0,96; 8,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,27; 81,57</t>
+          <t>0,96; 7,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,65; 71,56</t>
+          <t>1,07; 9,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,7; 73,58</t>
+          <t>0,9; 8,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,81; 72,21</t>
+          <t>0,53; 5,07</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 6,24</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1,68; 7,67</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 5,63</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>36,59%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>63,01%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>72,81%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>69,77%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>56,49%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>53,83%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>49,25%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>59,99%</t>
+          <t>6,46%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,21%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7,69%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8,33%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,95; 71,33</t>
+          <t>1,23; 13,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,07</t>
+          <t>0,0; 9,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,32; 85,12</t>
+          <t>2,68; 15,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,56; 91,48</t>
+          <t>2,9; 18,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>41,61; 92,08</t>
+          <t>2,04; 19,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,45; 83,73</t>
+          <t>2,27; 18,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,88; 75,91</t>
+          <t>2,22; 19,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,76; 71,15</t>
+          <t>2,35; 19,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>39,93; 77,38</t>
+          <t>2,43; 12,51</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,86; 10,83</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4,09; 14,59</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4,12; 15,6</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>83,13%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>94,73%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>85,42%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,96%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>90,36%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>92,31%</t>
+          <t>24,01%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>94,35%</t>
+          <t>13,96%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>10,55%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9,65%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>19,35%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>54,42; 100,0</t>
+          <t>9,26; 36,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>84,31; 100</t>
+          <t>2,52; 24,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>79,25; 100</t>
+          <t>5,19; 28,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>73,58; 100,0</t>
+          <t>4,55; 26,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>57,86; 100,0</t>
+          <t>2,38; 21,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>73,66; 100,0</t>
+          <t>2,71; 23,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>74,93; 97,15</t>
+          <t>1,81; 19,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>74,47; 100,0</t>
+          <t>8,56; 55,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>79,97; 100,0</t>
+          <t>7,2; 22,33</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>5,1; 19,88</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>4,43; 17,21</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>9,3; 40,01</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>47,08%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>42,06%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>44,15%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>61,7%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>61,13%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>60,7%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>55,08%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>51,06%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>52,77%</t>
+          <t>3,55%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,95%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>5,47%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>25,04; 63,22</t>
+          <t>1,78; 6,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>24,18; 62,05</t>
+          <t>1,44; 5,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,91; 61,28</t>
+          <t>2,55; 7,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>48,01; 74,83</t>
+          <t>1,9; 6,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>47,14; 75,04</t>
+          <t>2,08; 5,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>47,87; 74,6</t>
+          <t>1,58; 5,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>41,62; 65,36</t>
+          <t>1,63; 5,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>37,13; 63,12</t>
+          <t>3,78; 14,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>36,19; 63,11</t>
+          <t>2,33; 5,12</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 4,59</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2,57; 5,38</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3,46; 9,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que requiere cuidados especiales &gt;=60 años (tasa de respuesta: 99,71%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2432</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5585</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3808</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2432</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12410</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 31169</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19835</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12772</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 33686</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5635</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2739</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4042</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2539</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5635</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6782</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2539</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18857</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18841</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15122</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 12246</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18673</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1726; 22188</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13183</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2869</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7419</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>7419</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2869</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17144</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2144; 19473</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13608</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2130; 20462</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13609</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14584</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2399</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3886</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6394</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2566</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6571</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5742</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6823</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6725</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>8971</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>9629</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>13217</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>9291</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 9828</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13642</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1807; 16926</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 10580</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2100; 17764</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1775; 14361</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1848; 16112</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1894; 18644</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2158; 20555</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3633; 21566</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>5511; 25193</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2884; 23048</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7802</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3959</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>8967</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12544</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9738</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7727</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7641</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>11511</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>17540</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>11686</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>16609</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>24055</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1933; 21279</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12746</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3307; 18937</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4389; 28658</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2328; 22020</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2129; 17480</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2054; 18288</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3215; 26267</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6596; 33968</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4175; 24288</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>8821; 31487</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>11893; 45042</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>21848</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>9349</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>11770</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>16617</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>12623</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>10963</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>7596</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>48612</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>34470</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>20312</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>19366</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>65229</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>10126; 39653</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2197; 21026</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4675; 25291</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>6123; 35388</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3272; 29355</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2853; 24710</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2007; 21992</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>17335; 112934</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>17771; 55148</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>9807; 38262</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>8894; 34546</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>31344; 134872</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>32049</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>22829</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>35171</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>37312</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>36351</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>24433</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>26103</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>77531</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>68400</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>47262</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>61275</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>114843</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>15826; 55099</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>11001; 40325</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>20133; 55715</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>19540; 69799</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>21457; 59839</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>13235; 42265</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>13485; 41299</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>40386; 158564</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>44827; 98613</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>30008; 73596</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>41427; 86764</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>72689; 199752</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>